--- a/Data/real_data.xlsx
+++ b/Data/real_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/304b24243408c27c/Desktop/projects/Salesforce/SalesForceProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{95D339D6-2EDE-114E-BBDB-B55B126DB7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9A11663-5552-4D62-A5AF-6269DD4229C7}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{95D339D6-2EDE-114E-BBDB-B55B126DB7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C498B939-B527-49F6-8553-95DE3FE61DFC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9AC16B38-AC6A-BB4A-A160-B32F658F594D}"/>
   </bookViews>
@@ -9409,7 +9409,7 @@
   <dimension ref="A1:F1501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Data/real_data.xlsx
+++ b/Data/real_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/304b24243408c27c/Desktop/projects/Salesforce/SalesForceProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{95D339D6-2EDE-114E-BBDB-B55B126DB7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C498B939-B527-49F6-8553-95DE3FE61DFC}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{95D339D6-2EDE-114E-BBDB-B55B126DB7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A1FAF98-DBA0-4E1A-B8CA-805DEE087C7D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9AC16B38-AC6A-BB4A-A160-B32F658F594D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -9409,7 +9409,7 @@
   <dimension ref="A1:F1501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
